--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>785757.5123904045</v>
+        <v>865960.2355424387</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240763</v>
+        <v>5739665.974240767</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>117.0872012179339</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>264.6005554910206</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773045</v>
       </c>
     </row>
     <row r="4">
@@ -826,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>64.57009008111716</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472227</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>224.2794099422272</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>101.527639792785</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>23.94563726208645</v>
+        <v>1.781160222249223</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>193.1994278308467</v>
+        <v>201.0363296445897</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705019</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>90.78765443589889</v>
+        <v>116.5446615659153</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>168.1158122680966</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>134.0513867710698</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.20584125154443</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>42.29200062050096</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,13 +1584,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>94.48315401756106</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1771,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5976297100114</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>126.7498226612777</v>
+        <v>199.7325946875385</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1895,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>139.6821624261907</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>31.84589911397053</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>374.1211930204117</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>43.32162940005394</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.2698918955232</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2318,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>57.89934023899501</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>374.1747265925671</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>163.4467615873</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>168.1158122680976</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>74.29570779065889</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>121.7519142066482</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>14.31259208839118</v>
       </c>
       <c r="V29" t="n">
-        <v>229.7965692041383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>56.27259203479507</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>47.41254713315928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>120.608807415962</v>
       </c>
       <c r="H32" t="n">
-        <v>142.1676505554988</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>113.5103646250813</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>172.4209394294446</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>184.147735321692</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>303.420464349318</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>102.6418808591209</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>150.1033339375747</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>32.97950884736245</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>168.1158122680976</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>217.0914199928484</v>
+        <v>251.6966321719127</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>188.219639431212</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>281.8418017252673</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>181.4116544295646</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>283.8758740715558</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,16 +3982,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>330.6677928008982</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>162.6159201417025</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1217.629781995563</v>
+        <v>1148.907795281707</v>
       </c>
       <c r="C2" t="n">
-        <v>1099.359881775428</v>
+        <v>779.9452783412949</v>
       </c>
       <c r="D2" t="n">
-        <v>741.0941831686771</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="E2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>1604.229622059685</v>
+        <v>1148.907795281707</v>
       </c>
       <c r="Y2" t="n">
-        <v>1604.229622059685</v>
+        <v>1148.907795281707</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D3" t="n">
         <v>607.9167021542605</v>
@@ -4395,34 +4397,34 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.7932119894607</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>771.8570290615538</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>621.7403896492181</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
         <v>473.8272960668249</v>
@@ -4486,52 +4488,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.223806861248</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.223806861248</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.223806861248</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.223806861248</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.223806861248</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.223806861248</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1343.23425596323</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>1122.4416768197</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1432.831501090108</v>
+        <v>1148.907795281707</v>
       </c>
       <c r="C5" t="n">
-        <v>1432.831501090108</v>
+        <v>779.9452783412949</v>
       </c>
       <c r="D5" t="n">
-        <v>1074.565802483357</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="E5" t="n">
-        <v>688.7775498851129</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F5" t="n">
-        <v>277.7916450955053</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2459.786156892291</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2459.786156892291</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2206.205096156471</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1875.1422088129</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1522.373553542786</v>
       </c>
       <c r="X5" t="n">
-        <v>2209.570673130041</v>
+        <v>1148.907795281707</v>
       </c>
       <c r="Y5" t="n">
-        <v>1819.431341154229</v>
+        <v>1148.907795281707</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="C7" t="n">
-        <v>837.0793422748035</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9627028624677</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800746</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="F7" t="n">
-        <v>392.1596617821642</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="G7" t="n">
-        <v>224.1731970904428</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="H7" t="n">
-        <v>75.43429895394902</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>53.04593830764878</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099142</v>
+        <v>1713.412786206035</v>
       </c>
       <c r="C8" t="n">
-        <v>1043.17188115873</v>
+        <v>1713.412786206035</v>
       </c>
       <c r="D8" t="n">
-        <v>1043.17188115873</v>
+        <v>1355.147087599284</v>
       </c>
       <c r="E8" t="n">
-        <v>657.3836285604862</v>
+        <v>969.35883500104</v>
       </c>
       <c r="F8" t="n">
-        <v>246.3977237708786</v>
+        <v>558.3729302114325</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764994</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400152</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400152</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005977</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270156</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270156</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>2100.012626270156</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163264</v>
+        <v>2100.012626270156</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500111</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735136</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>854.842968204985</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761149</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937311</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>570.4526592426254</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>570.4526592426254</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>570.4526592426254</v>
       </c>
       <c r="E10" t="n">
-        <v>397.5455328255065</v>
+        <v>570.4526592426254</v>
       </c>
       <c r="F10" t="n">
-        <v>397.5455328255065</v>
+        <v>423.562711744715</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312182</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020472</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693229</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096579</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245822</v>
       </c>
       <c r="O10" t="n">
         <v>1383.126566999034</v>
@@ -4981,31 +4983,31 @@
         <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590078</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749939</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944674</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485122</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426254</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>570.4526592426254</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>570.4526592426254</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>570.4526592426254</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308157</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.438374367745</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D11" t="n">
-        <v>1448.172675760995</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>1062.384423162751</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>651.3985183731431</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>236.3260682181396</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.140063348091</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.000731372279</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5124,7 +5126,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>820.4128495803448</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C13" t="n">
-        <v>651.4766666524379</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D13" t="n">
-        <v>501.3600272401021</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E13" t="n">
-        <v>353.446933657709</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>206.5569861597986</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5230,19 +5232,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1705.527932658019</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1450.843444452132</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.843444452132</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>1222.853893554115</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>1002.061314410584</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1190.154071768027</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>1190.154071768027</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1190.154071768027</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
@@ -5306,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3024.190544682726</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2693.127657339155</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2340.359002069041</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X14" t="n">
-        <v>1966.893243807961</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y14" t="n">
-        <v>1576.753911832149</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>917.616325937273</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>748.6801430093661</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>598.5635035970304</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
         <v>477.7578170212613</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
-        <v>1548.04692080906</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>1320.057369911043</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>1099.264790767513</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796261</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392144</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D17" t="n">
-        <v>194.5422403324639</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E17" t="n">
-        <v>194.5422403324639</v>
+        <v>268.2622120761617</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5531,10 +5533,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5543,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="18">
@@ -5568,70 +5570,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
         <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>526.6580321322147</v>
+        <v>396.7094242895088</v>
       </c>
       <c r="C19" t="n">
-        <v>357.7218492043078</v>
+        <v>396.7094242895088</v>
       </c>
       <c r="D19" t="n">
-        <v>207.605209791972</v>
+        <v>246.592784877173</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>98.67969129477993</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T19" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1446.505797040963</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V19" t="n">
-        <v>1446.505797040963</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W19" t="n">
-        <v>1157.088627004002</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X19" t="n">
-        <v>929.0990761059845</v>
+        <v>617.5020034330389</v>
       </c>
       <c r="Y19" t="n">
-        <v>708.3064969624544</v>
+        <v>396.7094242895088</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1594.601034732593</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C20" t="n">
-        <v>1225.638517792182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D20" t="n">
-        <v>867.3728191854311</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
-        <v>481.5845665871869</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
@@ -5771,31 +5773,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>3075.868852377177</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>2744.805965033606</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W20" t="n">
-        <v>2744.805965033606</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X20" t="n">
-        <v>2371.340206772526</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y20" t="n">
-        <v>1981.200874796715</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1758.953670317397</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="C22" t="n">
-        <v>1758.953670317397</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D22" t="n">
-        <v>1758.953670317397</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E22" t="n">
-        <v>1611.040576735004</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F22" t="n">
-        <v>1611.040576735004</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>1611.040576735004</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
         <v>1464.823389952862</v>
@@ -5908,10 +5910,10 @@
         <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
         <v>2030.49300379717</v>
@@ -5920,40 +5922,40 @@
         <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
         <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T22" t="n">
-        <v>3103.839206178697</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U22" t="n">
-        <v>2814.736339304341</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V22" t="n">
-        <v>2560.051851098454</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W22" t="n">
-        <v>2270.634681061493</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X22" t="n">
-        <v>2042.645130163476</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y22" t="n">
-        <v>1821.852551019946</v>
+        <v>1540.3362096043</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796261</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C23" t="n">
-        <v>863.2862738200351</v>
+        <v>1610.10523981398</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>1610.10523981398</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6017,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943748</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="24">
@@ -6057,22 +6059,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>533.4780323548191</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="C25" t="n">
-        <v>364.5418494269122</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D25" t="n">
-        <v>214.4252100145765</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U25" t="n">
-        <v>1134.908724368016</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V25" t="n">
-        <v>880.2242361621296</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W25" t="n">
-        <v>715.1264971850588</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X25" t="n">
-        <v>715.1264971850588</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y25" t="n">
-        <v>715.1264971850588</v>
+        <v>1540.3362096043</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6254,22 +6256,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>3155.791869823214</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X26" t="n">
-        <v>2782.326111562134</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y26" t="n">
-        <v>2392.186779586323</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>752.7622949738579</v>
+        <v>997.7236669994146</v>
       </c>
       <c r="C28" t="n">
-        <v>583.826112045951</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D28" t="n">
-        <v>433.7094726336153</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E28" t="n">
-        <v>433.7094726336153</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F28" t="n">
-        <v>286.8195251357049</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6403,31 +6405,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U28" t="n">
-        <v>1927.294548088493</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V28" t="n">
-        <v>1672.610059882606</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="W28" t="n">
-        <v>1383.192889845645</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="X28" t="n">
-        <v>1155.203338947628</v>
+        <v>1218.516246142945</v>
       </c>
       <c r="Y28" t="n">
-        <v>934.4107598040977</v>
+        <v>997.7236669994146</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1590.514489367197</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.551972426786</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D29" t="n">
-        <v>863.2862738200351</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E29" t="n">
-        <v>477.498021221791</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="V29" t="n">
-        <v>3093.488074938325</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W29" t="n">
-        <v>2740.71941966821</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X29" t="n">
-        <v>2367.25366140713</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y29" t="n">
-        <v>1977.114329431319</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6536,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>994.2880032601528</v>
+        <v>980.7518458718749</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3518203322459</v>
+        <v>811.8156629439681</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>661.6990235316323</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>513.7859299492392</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396067</v>
+        <v>366.8959824513288</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J31" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
         <v>1317.747152581905</v>
@@ -6640,31 +6642,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V31" t="n">
-        <v>1672.610059882606</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W31" t="n">
-        <v>1624.71859813194</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X31" t="n">
-        <v>1396.729047233923</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="Y31" t="n">
-        <v>1175.936468090393</v>
+        <v>1162.400310702115</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1032.061124352531</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C32" t="n">
-        <v>663.098607412119</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D32" t="n">
-        <v>663.098607412119</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="E32" t="n">
-        <v>663.098607412119</v>
+        <v>599.3250994197324</v>
       </c>
       <c r="F32" t="n">
-        <v>252.1127026225114</v>
+        <v>188.3391946301248</v>
       </c>
       <c r="G32" t="n">
-        <v>252.1127026225114</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923658</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W32" t="n">
-        <v>2182.266054653544</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X32" t="n">
-        <v>1808.800296392464</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y32" t="n">
-        <v>1418.660964416652</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="33">
@@ -6768,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.169050396912</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="C34" t="n">
-        <v>181.169050396912</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218342</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218342</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218342</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>2648.160299682805</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>2393.475811476918</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>2104.058641439957</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="Y34" t="n">
-        <v>362.8175152271517</v>
+        <v>1876.06909054194</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038044</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.624422581789</v>
+        <v>758.7856865549913</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077977</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102166</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1927.329267658446</v>
+        <v>2343.035006464574</v>
       </c>
       <c r="C37" t="n">
-        <v>1927.329267658446</v>
+        <v>2174.098823536667</v>
       </c>
       <c r="D37" t="n">
-        <v>1927.329267658446</v>
+        <v>2023.982184124332</v>
       </c>
       <c r="E37" t="n">
-        <v>1779.416174076053</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="F37" t="n">
-        <v>1632.526226578143</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952862</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952862</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348674</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456657</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S37" t="n">
-        <v>3133.919937435998</v>
+        <v>3221.927154074705</v>
       </c>
       <c r="T37" t="n">
-        <v>2912.153322005524</v>
+        <v>3000.160538644231</v>
       </c>
       <c r="U37" t="n">
-        <v>2623.050455131167</v>
+        <v>3000.160538644231</v>
       </c>
       <c r="V37" t="n">
-        <v>2368.365966925281</v>
+        <v>2745.476050438344</v>
       </c>
       <c r="W37" t="n">
-        <v>2078.94879688832</v>
+        <v>2745.476050438344</v>
       </c>
       <c r="X37" t="n">
-        <v>1927.329267658446</v>
+        <v>2745.476050438344</v>
       </c>
       <c r="Y37" t="n">
-        <v>1927.329267658446</v>
+        <v>2524.683471294814</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G38" t="n">
         <v>66.51211643218343</v>
@@ -7175,13 +7177,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060172</v>
@@ -7202,22 +7204,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3292.293186409815</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W38" t="n">
-        <v>3155.791869823214</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X38" t="n">
-        <v>2782.326111562134</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.186779586323</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>533.4780323548192</v>
+        <v>2023.982184124333</v>
       </c>
       <c r="C40" t="n">
-        <v>364.5418494269123</v>
+        <v>2023.982184124333</v>
       </c>
       <c r="D40" t="n">
-        <v>214.4252100145765</v>
+        <v>2023.982184124333</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218343</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U40" t="n">
-        <v>1708.010285469454</v>
+        <v>2568.08384236718</v>
       </c>
       <c r="V40" t="n">
-        <v>1453.325797263567</v>
+        <v>2313.399354161294</v>
       </c>
       <c r="W40" t="n">
-        <v>1163.908627226606</v>
+        <v>2023.982184124333</v>
       </c>
       <c r="X40" t="n">
-        <v>935.9190763285891</v>
+        <v>2023.982184124333</v>
       </c>
       <c r="Y40" t="n">
-        <v>715.126497185059</v>
+        <v>2023.982184124333</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1619.798686923957</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C41" t="n">
-        <v>1250.836169983545</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D41" t="n">
-        <v>892.5704713767946</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7436,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2630.721789066532</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2277.953133796418</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>1904.487375535338</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y41" t="n">
-        <v>1619.798686923957</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="42">
@@ -7464,70 +7466,70 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>697.9541770656748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C43" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
         <v>234.2149530574645</v>
@@ -7591,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1462.534111289448</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1173.431244415092</v>
+        <v>1227.09874134186</v>
       </c>
       <c r="V43" t="n">
-        <v>918.7467562092049</v>
+        <v>972.4142531359726</v>
       </c>
       <c r="W43" t="n">
-        <v>918.7467562092049</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X43" t="n">
-        <v>918.7467562092049</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y43" t="n">
-        <v>697.9541770656748</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1127.748203495404</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C44" t="n">
-        <v>758.7856865549927</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
-        <v>400.5199879482422</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>66.51211643218343</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
         <v>66.51211643218343</v>
@@ -7646,19 +7648,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7682,16 +7684,16 @@
         <v>2961.784676410103</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066532</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796418</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X44" t="n">
-        <v>1904.487375535338</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y44" t="n">
-        <v>1514.348043559526</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="45">
@@ -7728,10 +7730,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -8061,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>255.8421700460954</v>
       </c>
       <c r="P3" t="n">
-        <v>186.5911984019046</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.030432851517</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120155</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>248.1856905530737</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22565,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22600,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22609,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>105.1305451874484</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22714,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>36.98748233845647</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -22768,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>80.85095794181444</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>187.2682928307268</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>21.92457560600934</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>80.85095794181413</v>
+        <v>103.0154349816514</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23021,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>218.3482749421073</v>
+        <v>210.5113731283643</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247061</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,10 +23074,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23176,22 +23178,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>75.5189456089053</v>
+        <v>49.76193847888888</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>126.4919521192238</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>235.6797139073992</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.0409798470834</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>123.7338076385273</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23546,16 +23548,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>156.5120179413409</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>181.1251564493154</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>26.8363329365578</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>280.1262230804338</v>
+        <v>207.143451054173</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -23750,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6.751800220378442</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>113.5751489089607</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8.612648643068894</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>207.673542558848</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>117.5620882864141</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24144,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>307.3735515320125</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>7.755643479694697</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>123.076236749291</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>35.8021578715225</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -24503,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>92.95111330796894</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.27389405238007</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24689,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,13 +24733,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>236.6825798705108</v>
       </c>
       <c r="V29" t="n">
-        <v>97.95568926599657</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>109.7532162242332</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24920,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>290.3129182374915</v>
       </c>
       <c r="H32" t="n">
-        <v>152.4401138318217</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>35.10510839313106</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25154,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>181.1251564493156</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>51.26257727136493</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>87.12714447232095</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>75.60632145146241</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25397,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25442,16 +25444,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>170.9384612922577</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>181.1251564493154</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>69.12041821276446</v>
+        <v>34.5152060337002</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>222.7020862222414</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>104.3961369307863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>38.13729484660456</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2.335964134057065</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>51.26257727136357</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25922,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>165.1363383284324</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>765284.2720076084</v>
+        <v>765284.272007608</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>843372.1640239162</v>
+        <v>843372.1640239161</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>843372.1640239162</v>
+        <v>843372.1640239164</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>843372.164023916</v>
+        <v>843372.1640239162</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>843372.164023916</v>
+        <v>843372.1640239161</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>843372.1640239164</v>
+        <v>843372.1640239162</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.1640239159</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>843372.164023916</v>
+        <v>843372.1640239162</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>843372.1640239162</v>
+        <v>843372.1640239161</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.1640239162</v>
       </c>
     </row>
     <row r="16">
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321270.2120190238</v>
+        <v>321270.212019024</v>
       </c>
       <c r="C2" t="n">
         <v>321270.212019024</v>
       </c>
       <c r="D2" t="n">
-        <v>321270.212019024</v>
+        <v>321270.2120190237</v>
       </c>
       <c r="E2" t="n">
+        <v>358046.9539194664</v>
+      </c>
+      <c r="F2" t="n">
         <v>358046.9539194667</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>358046.9539194666</v>
-      </c>
-      <c r="G2" t="n">
-        <v>358046.9539194667</v>
       </c>
       <c r="H2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="I2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="J2" t="n">
-        <v>358046.9539194668</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="K2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="L2" t="n">
         <v>358046.9539194667</v>
@@ -26347,7 +26349,7 @@
         <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
-        <v>358046.9539194668</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
         <v>358046.9539194667</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171907</v>
+        <v>182072.9798171915</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341491</v>
+        <v>47552.26579341503</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>16175.59256035158</v>
       </c>
       <c r="C4" t="n">
-        <v>16175.59256035157</v>
+        <v>16175.59256035158</v>
       </c>
       <c r="D4" t="n">
-        <v>16175.59256035157</v>
+        <v>16175.59256035161</v>
       </c>
       <c r="E4" t="n">
         <v>8550.515172066862</v>
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984464</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26482,7 +26484,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26494,13 +26496,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-902594.9365570921</v>
+        <v>-902594.9365570918</v>
       </c>
       <c r="C6" t="n">
         <v>212156.8470188277</v>
       </c>
       <c r="D6" t="n">
-        <v>212156.8470188277</v>
+        <v>212156.8470188283</v>
       </c>
       <c r="E6" t="n">
-        <v>93117.11836881586</v>
+        <v>93117.1183688147</v>
       </c>
       <c r="F6" t="n">
         <v>275190.0981860065</v>
       </c>
       <c r="G6" t="n">
-        <v>275190.0981860065</v>
+        <v>275190.0981860063</v>
       </c>
       <c r="H6" t="n">
+        <v>275190.0981860066</v>
+      </c>
+      <c r="I6" t="n">
         <v>275190.0981860064</v>
       </c>
-      <c r="I6" t="n">
-        <v>275190.0981860065</v>
-      </c>
       <c r="J6" t="n">
-        <v>107584.920376024</v>
+        <v>107584.9203760242</v>
       </c>
       <c r="K6" t="n">
         <v>275190.0981860065</v>
       </c>
       <c r="L6" t="n">
-        <v>275190.0981860065</v>
+        <v>275190.0981860064</v>
       </c>
       <c r="M6" t="n">
         <v>227637.8323925915</v>
       </c>
       <c r="N6" t="n">
-        <v>275190.0981860066</v>
+        <v>275190.0981860065</v>
       </c>
       <c r="O6" t="n">
         <v>275190.0981860065</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175384</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26790,37 +26792,37 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000381</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022922</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757599</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022548</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022545</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31042,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181056</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336175</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979353</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491897</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857139</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767376</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441729998</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342219</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166589</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190641</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147048</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.877201123531</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745091</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43766458389758</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744845</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347158</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380019</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436489</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575839</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178436</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.234740417724</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040584</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762067</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405671</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378622</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168759</v>
       </c>
       <c r="R9" t="n">
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997899</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000165</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654577</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335767</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753786</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682317</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849625</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067956</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169135</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097483</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575958</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523476</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069555</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024978</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32555,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33740,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34147,7 +34149,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.994981974642</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
         <v>473.099994678169</v>
@@ -34375,7 +34377,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490575</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
         <v>781.7148990095023</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
+        <v>297.6803606378501</v>
+      </c>
+      <c r="M3" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="M3" t="n">
-        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>591.2668520422184</v>
       </c>
       <c r="P3" t="n">
-        <v>436.2707275254369</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>622.455381029198</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225034</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407333</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067503</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457271</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.607173037631</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949721</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637945</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402553</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939884</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091725</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560632</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378498</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.93133228204</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928734</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961226</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750489</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308543</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870584</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423489</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831067</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468031</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860243</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.996580981807</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805392</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -38023,7 +38025,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
